--- a/medicine/Enfance/Alain_Le_Saux_(artiste)/Alain_Le_Saux_(artiste).xlsx
+++ b/medicine/Enfance/Alain_Le_Saux_(artiste)/Alain_Le_Saux_(artiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alain Le Saux, né le 16 février 1936 à Boulogne-Billancourt et mort le 14 mars 2015 à Créteil[1],[2],[3], est un directeur artistique, auteur jeunesse et illustrateur français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alain Le Saux, né le 16 février 1936 à Boulogne-Billancourt et mort le 14 mars 2015 à Créteil est un directeur artistique, auteur jeunesse et illustrateur français.
 </t>
         </is>
       </c>
@@ -511,12 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alain Le Saux participe avec Gérard Lebovici et Gérard Guégan à a création des éditions Champ libre[4]. Il a aussi été directeur artistique du magazine Lui.
-Il se tourne ensuite vers l'illustration de livres pour la jeunesse[3], au début des années 1980.
-Famille
-Il est le frère jumeau de Philippe Corentin[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alain Le Saux participe avec Gérard Lebovici et Gérard Guégan à a création des éditions Champ libre. Il a aussi été directeur artistique du magazine Lui.
+Il se tourne ensuite vers l'illustration de livres pour la jeunesse, au début des années 1980.
 </t>
         </is>
       </c>
@@ -542,10 +554,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le frère jumeau de Philippe Corentin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alain_Le_Saux_(artiste)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alain_Le_Saux_(artiste)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Totor et Lili chez les moucheurs de nez avec Philippe Corentin
 Comment élever son papa aux éditions Rivages.
@@ -557,33 +608,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Alain_Le_Saux_(artiste)</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Alain_Le_Saux_(artiste)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Quelques récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1994 : "Mention" Prix Graphique enfants de la Foire du livre de jeunesse de Bologne[5] (Italie) pour Petit Musée avec Grégoire Solotareff</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1994 : "Mention" Prix Graphique enfants de la Foire du livre de jeunesse de Bologne (Italie) pour Petit Musée avec Grégoire Solotareff</t>
         </is>
       </c>
     </row>
